--- a/individual_case_outputs/avey/234.xlsx
+++ b/individual_case_outputs/avey/234.xlsx
@@ -718,7 +718,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>lymphadenitis (bacterial adenitis)</t>
+          <t>lymphangitis</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -906,7 +906,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>lymphadenitis (bacterial adenitis)</t>
+          <t>bacterial / viral infections</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
